--- a/preprocessing results/4-Applying preprocessing method-after removing frequent hashtags/Histogram.xlsx
+++ b/preprocessing results/4-Applying preprocessing method-after removing frequent hashtags/Histogram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My projects\IdeaProjects\Event_Detection\preprocessing results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My projects\GitHubProjects\Event_Detection_preprocessing\preprocessing results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5181E1-A723-4F05-A5EC-F38DB556D7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D5F778-9D69-4B74-BE15-B3340E720341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,13 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="8.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -395,98 +398,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>6751</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>456</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -494,156 +497,468 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>120</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>140</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>143</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>96</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>107</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>118</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>119</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>121</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>123</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>126</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>127</v>
+      </c>
+      <c r="B71">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
-    <sortCondition descending="1" ref="B1:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+    <sortCondition descending="1" ref="B1:B71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
